--- a/artfynd/A 56956-2025 artfynd.xlsx
+++ b/artfynd/A 56956-2025 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>130003655</v>
       </c>
       <c r="B2" t="n">
-        <v>58252</v>
+        <v>58256</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>130334499</v>
       </c>
       <c r="B9" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>

--- a/artfynd/A 56956-2025 artfynd.xlsx
+++ b/artfynd/A 56956-2025 artfynd.xlsx
@@ -902,7 +902,7 @@
         <v>130335392</v>
       </c>
       <c r="B4" t="n">
-        <v>57861</v>
+        <v>57881</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -1111,7 +1111,7 @@
         <v>130335441</v>
       </c>
       <c r="B6" t="n">
-        <v>57861</v>
+        <v>57881</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1223,7 +1223,7 @@
         <v>130335105</v>
       </c>
       <c r="B7" t="n">
-        <v>57861</v>
+        <v>57881</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>130335274</v>
       </c>
       <c r="B8" t="n">
-        <v>57861</v>
+        <v>57881</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         <v>130335768</v>
       </c>
       <c r="B12" t="n">
-        <v>57861</v>
+        <v>57881</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1848,7 +1848,7 @@
         <v>130334482</v>
       </c>
       <c r="B13" t="n">
-        <v>57861</v>
+        <v>57881</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
         <v>130334552</v>
       </c>
       <c r="B15" t="n">
-        <v>57861</v>
+        <v>57881</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>130335126</v>
       </c>
       <c r="B16" t="n">
-        <v>57861</v>
+        <v>57881</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
